--- a/rosters/2023/Boston/Boston.xlsx
+++ b/rosters/2023/Boston/Boston.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>No.</t>
   </si>
@@ -49,36 +49,33 @@
     <t>Derrick White</t>
   </si>
   <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
     <t>Sam Hauser</t>
   </si>
   <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
+    <t>Luke Kornet</t>
+  </si>
+  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
-    <t>Luke Kornet</t>
-  </si>
-  <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
-    <t>Justin Jackson</t>
-  </si>
-  <si>
     <t>Blake Griffin</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
     <t>JD Davison (TW)</t>
   </si>
   <si>
+    <t>Mike Muscala</t>
+  </si>
+  <si>
     <t>Mfiondu Kabengele (TW)</t>
   </si>
   <si>
@@ -100,36 +100,36 @@
     <t>PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-6</t>
+    <t>7-2</t>
   </si>
   <si>
     <t>6-5</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>6-9</t>
-  </si>
-  <si>
     <t>6-1</t>
   </si>
   <si>
@@ -139,36 +139,33 @@
     <t>July 2, 1994</t>
   </si>
   <si>
+    <t>November 30, 1998</t>
+  </si>
+  <si>
     <t>December 8, 1997</t>
   </si>
   <si>
-    <t>November 30, 1998</t>
-  </si>
-  <si>
     <t>March 3, 1998</t>
   </si>
   <si>
+    <t>July 15, 1995</t>
+  </si>
+  <si>
     <t>October 24, 1996</t>
   </si>
   <si>
     <t>December 11, 1992</t>
   </si>
   <si>
+    <t>June 3, 1986</t>
+  </si>
+  <si>
     <t>March 6, 1994</t>
   </si>
   <si>
-    <t>July 15, 1995</t>
-  </si>
-  <si>
-    <t>June 3, 1986</t>
-  </si>
-  <si>
     <t>January 28, 1998</t>
   </si>
   <si>
-    <t>March 28, 1995</t>
-  </si>
-  <si>
     <t>March 16, 1989</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
     <t>October 3, 2002</t>
   </si>
   <si>
+    <t>July 1, 1991</t>
+  </si>
+  <si>
     <t>August 14, 1997</t>
   </si>
   <si>
@@ -199,21 +199,21 @@
     <t>5</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -226,42 +226,42 @@
     <t>R</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
     <t>Colorado-Colorado Springs, Colorado</t>
   </si>
   <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
     <t>Marquette, Virginia</t>
   </si>
   <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
     <t>Duke</t>
   </si>
   <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
     <t>California</t>
   </si>
   <si>
     <t>Virginia</t>
   </si>
   <si>
+    <t>Florida</t>
+  </si>
+  <si>
     <t>Oklahoma State</t>
   </si>
   <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
     <t>Oregon</t>
   </si>
   <si>
-    <t>UNC</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
@@ -271,42 +271,42 @@
     <t>Alabama</t>
   </si>
   <si>
+    <t>Bucknell</t>
+  </si>
+  <si>
     <t>Florida State</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/whitede01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/willigr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/hausesa01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/willigr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/t/tatumja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/k/kornelu01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/brownja02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/brogdma01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/horfoal01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/smartma01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/k/kornelu01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/horfoal01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/p/pritcpa01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/jacksju01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/griffbl01.html</t>
   </si>
   <si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/davisjd01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/muscami01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/kabenmf01.html</t>
@@ -757,10 +760,10 @@
         <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -768,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -780,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -792,10 +795,10 @@
         <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -803,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -815,7 +818,7 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -827,10 +830,10 @@
         <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -847,7 +850,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>210</v>
@@ -862,10 +865,10 @@
         <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -873,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -882,10 +885,10 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -894,13 +897,13 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -908,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -917,10 +920,10 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -932,10 +935,10 @@
         <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -943,19 +946,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -964,13 +967,13 @@
         <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -978,34 +981,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
       <c r="F9">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1013,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1025,22 +1028,22 @@
         <v>37</v>
       </c>
       <c r="F10">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
         <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1054,7 +1057,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -1072,10 +1075,10 @@
         <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1083,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1092,10 +1095,10 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -1104,13 +1107,13 @@
         <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1118,19 +1121,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
@@ -1139,13 +1142,13 @@
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1153,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1165,7 +1168,7 @@
         <v>37</v>
       </c>
       <c r="F14">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -1174,13 +1177,13 @@
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1188,19 +1191,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
         <v>53</v>
@@ -1209,13 +1212,13 @@
         <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1232,7 +1235,7 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>250</v>
@@ -1247,10 +1250,10 @@
         <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1261,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
@@ -1276,10 +1279,10 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Boston/Boston.xlsx
+++ b/rosters/2023/Boston/Boston.xlsx
@@ -61,12 +61,12 @@
     <t>Luke Kornet</t>
   </si>
   <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
     <t>Al Horford</t>
   </si>
   <si>
@@ -103,12 +103,12 @@
     <t>C</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>July 15, 1995</t>
   </si>
   <si>
+    <t>December 11, 1992</t>
+  </si>
+  <si>
     <t>October 24, 1996</t>
   </si>
   <si>
-    <t>December 11, 1992</t>
-  </si>
-  <si>
     <t>June 3, 1986</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>Vanderbilt</t>
   </si>
   <si>
+    <t>Virginia</t>
+  </si>
+  <si>
     <t>California</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -292,10 +292,10 @@
     <t>https://www.basketball-reference.com/players/k/kornelu01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/brogdma01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/brownja02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/brogdma01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/horfoal01.html</t>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -920,10 +920,10 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -946,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -955,10 +955,10 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1022,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -1057,7 +1057,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -1162,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -1264,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>

--- a/rosters/2023/Boston/Boston.xlsx
+++ b/rosters/2023/Boston/Boston.xlsx
@@ -58,12 +58,12 @@
     <t>Jayson Tatum</t>
   </si>
   <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
     <t>Luke Kornet</t>
   </si>
   <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Robert Williams</t>
   </si>
   <si>
+    <t>Mike Muscala</t>
+  </si>
+  <si>
     <t>JD Davison (TW)</t>
   </si>
   <si>
-    <t>Mike Muscala</t>
-  </si>
-  <si>
     <t>Mfiondu Kabengele (TW)</t>
   </si>
   <si>
@@ -100,12 +100,12 @@
     <t>PF</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>7-2</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>March 3, 1998</t>
   </si>
   <si>
+    <t>December 11, 1992</t>
+  </si>
+  <si>
     <t>July 15, 1995</t>
   </si>
   <si>
-    <t>December 11, 1992</t>
-  </si>
-  <si>
     <t>October 24, 1996</t>
   </si>
   <si>
@@ -172,12 +172,12 @@
     <t>October 17, 1997</t>
   </si>
   <si>
+    <t>July 1, 1991</t>
+  </si>
+  <si>
     <t>October 3, 2002</t>
   </si>
   <si>
-    <t>July 1, 1991</t>
-  </si>
-  <si>
     <t>August 14, 1997</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>4</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Duke</t>
   </si>
   <si>
+    <t>Virginia</t>
+  </si>
+  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>Texas A&amp;M</t>
   </si>
   <si>
+    <t>Bucknell</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>Bucknell</t>
-  </si>
-  <si>
     <t>Florida State</t>
   </si>
   <si>
@@ -289,12 +289,12 @@
     <t>https://www.basketball-reference.com/players/t/tatumja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/brogdma01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/k/kornelu01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/brogdma01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/brownja02.html</t>
   </si>
   <si>
@@ -313,10 +313,10 @@
     <t>https://www.basketball-reference.com/players/w/williro04.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/muscami01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/davisjd01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/muscami01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/kabenmf01.html</t>
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -888,7 +888,7 @@
         <v>34</v>
       </c>
       <c r="F6">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -897,7 +897,7 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
         <v>76</v>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -923,7 +923,7 @@
         <v>35</v>
       </c>
       <c r="F7">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -932,7 +932,7 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
         <v>77</v>
@@ -987,7 +987,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -1022,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -1057,7 +1057,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -1092,7 +1092,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -1127,7 +1127,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1156,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1165,10 +1165,10 @@
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -1191,7 +1191,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1200,10 +1200,10 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="G15" t="s">
         <v>53</v>

--- a/rosters/2023/Boston/Boston.xlsx
+++ b/rosters/2023/Boston/Boston.xlsx
@@ -49,24 +49,24 @@
     <t>Derrick White</t>
   </si>
   <si>
+    <t>Sam Hauser</t>
+  </si>
+  <si>
     <t>Grant Williams</t>
   </si>
   <si>
-    <t>Sam Hauser</t>
-  </si>
-  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
     <t>Luke Kornet</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
     <t>Al Horford</t>
   </si>
   <si>
@@ -103,21 +103,21 @@
     <t>PG</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -139,24 +139,24 @@
     <t>July 2, 1994</t>
   </si>
   <si>
+    <t>December 8, 1997</t>
+  </si>
+  <si>
     <t>November 30, 1998</t>
   </si>
   <si>
-    <t>December 8, 1997</t>
-  </si>
-  <si>
     <t>March 3, 1998</t>
   </si>
   <si>
     <t>December 11, 1992</t>
   </si>
   <si>
+    <t>October 24, 1996</t>
+  </si>
+  <si>
     <t>July 15, 1995</t>
   </si>
   <si>
-    <t>October 24, 1996</t>
-  </si>
-  <si>
     <t>June 3, 1986</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>5</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -235,24 +235,24 @@
     <t>Colorado-Colorado Springs, Colorado</t>
   </si>
   <si>
+    <t>Marquette, Virginia</t>
+  </si>
+  <si>
     <t>Tennessee</t>
   </si>
   <si>
-    <t>Marquette, Virginia</t>
-  </si>
-  <si>
     <t>Duke</t>
   </si>
   <si>
     <t>Virginia</t>
   </si>
   <si>
+    <t>California</t>
+  </si>
+  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>California</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -280,22 +280,22 @@
     <t>https://www.basketball-reference.com/players/w/whitede01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hausesa01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/willigr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hausesa01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/t/tatumja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/brogdma01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/brownja02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/k/kornelu01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/brownja02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/horfoal01.html</t>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -783,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -818,7 +818,7 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -850,7 +850,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>210</v>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -920,10 +920,10 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -932,7 +932,7 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
         <v>77</v>
@@ -946,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -955,10 +955,10 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -967,7 +967,7 @@
         <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
         <v>78</v>
@@ -987,7 +987,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -1092,7 +1092,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -1127,7 +1127,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1162,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -1264,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>

--- a/rosters/2023/Boston/Boston.xlsx
+++ b/rosters/2023/Boston/Boston.xlsx
@@ -58,12 +58,12 @@
     <t>Jayson Tatum</t>
   </si>
   <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
     <t>Luke Kornet</t>
   </si>
   <si>
@@ -100,12 +100,12 @@
     <t>PF</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>March 3, 1998</t>
   </si>
   <si>
+    <t>October 24, 1996</t>
+  </si>
+  <si>
     <t>December 11, 1992</t>
   </si>
   <si>
-    <t>October 24, 1996</t>
-  </si>
-  <si>
     <t>July 15, 1995</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Duke</t>
   </si>
   <si>
+    <t>California</t>
+  </si>
+  <si>
     <t>Virginia</t>
   </si>
   <si>
-    <t>California</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
@@ -289,10 +289,10 @@
     <t>https://www.basketball-reference.com/players/t/tatumja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/brownja02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/brogdma01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/brownja02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/kornelu01.html</t>
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -885,10 +885,10 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -920,10 +920,10 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1022,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -1057,7 +1057,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -1197,7 +1197,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>37</v>
@@ -1264,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>

--- a/rosters/2023/Boston/Boston.xlsx
+++ b/rosters/2023/Boston/Boston.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>No.</t>
   </si>
@@ -58,15 +58,15 @@
     <t>Jayson Tatum</t>
   </si>
   <si>
+    <t>Luke Kornet</t>
+  </si>
+  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>Luke Kornet</t>
-  </si>
-  <si>
     <t>Al Horford</t>
   </si>
   <si>
@@ -91,6 +91,9 @@
     <t>Mfiondu Kabengele (TW)</t>
   </si>
   <si>
+    <t>Justin Champagnie</t>
+  </si>
+  <si>
     <t>Danilo Gallinari</t>
   </si>
   <si>
@@ -100,15 +103,15 @@
     <t>PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
@@ -118,12 +121,12 @@
     <t>6-6</t>
   </si>
   <si>
+    <t>7-2</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
@@ -148,15 +151,15 @@
     <t>March 3, 1998</t>
   </si>
   <si>
+    <t>July 15, 1995</t>
+  </si>
+  <si>
     <t>October 24, 1996</t>
   </si>
   <si>
     <t>December 11, 1992</t>
   </si>
   <si>
-    <t>July 15, 1995</t>
-  </si>
-  <si>
     <t>June 3, 1986</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
     <t>August 14, 1997</t>
   </si>
   <si>
+    <t>June 29, 2001</t>
+  </si>
+  <si>
     <t>August 8, 1988</t>
   </si>
   <si>
@@ -244,15 +250,15 @@
     <t>Duke</t>
   </si>
   <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
     <t>California</t>
   </si>
   <si>
     <t>Virginia</t>
   </si>
   <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -277,6 +283,9 @@
     <t>Florida State</t>
   </si>
   <si>
+    <t>Pitt</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/whitede01.html</t>
   </si>
   <si>
@@ -289,15 +298,15 @@
     <t>https://www.basketball-reference.com/players/t/tatumja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/k/kornelu01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/brownja02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/brogdma01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/k/kornelu01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/horfoal01.html</t>
   </si>
   <si>
@@ -320,6 +329,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/kabenmf01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/champju01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/gallida01.html</t>
@@ -693,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,28 +754,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>190</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -777,28 +789,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -812,28 +824,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>236</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -847,28 +859,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -876,34 +888,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -911,34 +923,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -946,34 +958,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -987,28 +999,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1022,28 +1034,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>220</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1057,28 +1069,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>195</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1092,28 +1104,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>250</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1127,28 +1139,28 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>237</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1162,28 +1174,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>240</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1197,28 +1209,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>195</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1232,57 +1244,92 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>250</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18">
         <v>233</v>
       </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>102</v>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1303,6 +1350,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
